--- a/demo/deadband/cases/IL200_opf2.xlsx
+++ b/demo/deadband/cases/IL200_opf2.xlsx
@@ -19027,7 +19027,7 @@
         <v>0.1335</v>
       </c>
       <c r="T7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U7">
         <v>0</v>
@@ -19247,7 +19247,7 @@
         <v>0.09039999999999999</v>
       </c>
       <c r="T9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U9">
         <v>0</v>
@@ -19357,7 +19357,7 @@
         <v>0.2858</v>
       </c>
       <c r="T10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U10">
         <v>0</v>
@@ -19467,7 +19467,7 @@
         <v>0.1854</v>
       </c>
       <c r="T11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U11">
         <v>0</v>
@@ -19577,7 +19577,7 @@
         <v>0.1565</v>
       </c>
       <c r="T12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U12">
         <v>0</v>
@@ -19687,7 +19687,7 @@
         <v>0.1759</v>
       </c>
       <c r="T13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U13">
         <v>0</v>
@@ -19797,7 +19797,7 @@
         <v>0.2425</v>
       </c>
       <c r="T14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U14">
         <v>0</v>
@@ -19907,7 +19907,7 @@
         <v>0.20816</v>
       </c>
       <c r="T15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U15">
         <v>0</v>
@@ -20787,7 +20787,7 @@
         <v>0.0959</v>
       </c>
       <c r="T23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U23">
         <v>0</v>
@@ -20897,7 +20897,7 @@
         <v>0.2303</v>
       </c>
       <c r="T24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U24">
         <v>0</v>
@@ -21007,7 +21007,7 @@
         <v>0.1927</v>
       </c>
       <c r="T25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U25">
         <v>0</v>
@@ -21117,7 +21117,7 @@
         <v>0.1553</v>
       </c>
       <c r="T26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U26">
         <v>0</v>
@@ -21227,7 +21227,7 @@
         <v>0.263</v>
       </c>
       <c r="T27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U27">
         <v>0</v>
@@ -21337,7 +21337,7 @@
         <v>0.1141</v>
       </c>
       <c r="T28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U28">
         <v>0</v>
@@ -21447,7 +21447,7 @@
         <v>0.0906</v>
       </c>
       <c r="T29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U29">
         <v>0</v>
@@ -21557,7 +21557,7 @@
         <v>0.2539</v>
       </c>
       <c r="T30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U30">
         <v>0</v>
@@ -21667,7 +21667,7 @@
         <v>0.2022</v>
       </c>
       <c r="T31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U31">
         <v>0</v>
@@ -21777,7 +21777,7 @@
         <v>0.3493</v>
       </c>
       <c r="T32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U32">
         <v>0</v>
@@ -21887,7 +21887,7 @@
         <v>0.1483</v>
       </c>
       <c r="T33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U33">
         <v>0</v>
@@ -21997,7 +21997,7 @@
         <v>0.2296</v>
       </c>
       <c r="T34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U34">
         <v>0</v>
@@ -22107,7 +22107,7 @@
         <v>0.2221</v>
       </c>
       <c r="T35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U35">
         <v>0</v>
@@ -22217,7 +22217,7 @@
         <v>0.196</v>
       </c>
       <c r="T36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U36">
         <v>0</v>
@@ -22327,7 +22327,7 @@
         <v>0.1496</v>
       </c>
       <c r="T37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U37">
         <v>0</v>
@@ -23427,7 +23427,7 @@
         <v>0.1385</v>
       </c>
       <c r="T47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U47">
         <v>0</v>

--- a/demo/deadband/cases/IL200_opf2.xlsx
+++ b/demo/deadband/cases/IL200_opf2.xlsx
@@ -18211,7 +18211,7 @@
         <v>28.4575</v>
       </c>
       <c r="L2">
-        <v>1.7075</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>2.0945</v>
@@ -18453,7 +18453,7 @@
         <v>0.0453</v>
       </c>
       <c r="L2">
-        <v>0.0136</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0.0211</v>
@@ -18563,7 +18563,7 @@
         <v>0.0453</v>
       </c>
       <c r="L3">
-        <v>0.0136</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0.0211</v>
@@ -18673,7 +18673,7 @@
         <v>0.0453</v>
       </c>
       <c r="L4">
-        <v>0.0136</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0.0211</v>
@@ -18783,7 +18783,7 @@
         <v>0.0453</v>
       </c>
       <c r="L5">
-        <v>0.0136</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0.0211</v>
@@ -18893,7 +18893,7 @@
         <v>0.0907</v>
       </c>
       <c r="L6">
-        <v>0.0272</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0.0423</v>
@@ -19113,7 +19113,7 @@
         <v>0.047</v>
       </c>
       <c r="L8">
-        <v>0.0141</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0.0219</v>
@@ -20653,7 +20653,7 @@
         <v>0.18</v>
       </c>
       <c r="L22">
-        <v>0.05400000000000001</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0.0839</v>
@@ -23293,7 +23293,7 @@
         <v>0.175</v>
       </c>
       <c r="L46">
-        <v>0.0525</v>
+        <v>0</v>
       </c>
       <c r="M46">
         <v>0.08160000000000001</v>

--- a/demo/deadband/cases/IL200_opf2.xlsx
+++ b/demo/deadband/cases/IL200_opf2.xlsx
@@ -15,13 +15,14 @@
     <sheet name="Line" sheetId="6" r:id="rId6"/>
     <sheet name="Area" sheetId="7" r:id="rId7"/>
     <sheet name="GCost" sheetId="8" r:id="rId8"/>
+    <sheet name="Summary" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="702">
   <si>
     <t>idx</t>
   </si>
@@ -2100,6 +2101,33 @@
   </si>
   <si>
     <t>c0</t>
+  </si>
+  <si>
+    <t>field</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>comment2</t>
+  </si>
+  <si>
+    <t>comment3</t>
+  </si>
+  <si>
+    <t>comment4</t>
+  </si>
+  <si>
+    <t>Info</t>
+  </si>
+  <si>
+    <t>AMS 1.0.12.post44+g71e1785f</t>
+  </si>
+  <si>
+    <t>06/04/2025 10:34:39 PM</t>
+  </si>
+  <si>
+    <t>AMS comes with ABSOLUTELY NO WARRANTY</t>
   </si>
 </sst>
 </file>
@@ -45395,4 +45423,54 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>698</v>
+      </c>
+      <c r="C2" t="s">
+        <v>699</v>
+      </c>
+      <c r="D2" t="s">
+        <v>700</v>
+      </c>
+      <c r="E2" t="s">
+        <v>701</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/demo/deadband/cases/IL200_opf2.xlsx
+++ b/demo/deadband/cases/IL200_opf2.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="702">
   <si>
     <t>idx</t>
   </si>
@@ -2121,10 +2121,10 @@
     <t>Info</t>
   </si>
   <si>
-    <t>AMS 1.0.12.post44+g71e1785f</t>
-  </si>
-  <si>
-    <t>06/04/2025 10:34:39 PM</t>
+    <t>AMS 1.0.12.post44.dev0+g71e1785f</t>
+  </si>
+  <si>
+    <t>06/05/2025 06:07:12 PM</t>
   </si>
   <si>
     <t>AMS comes with ABSOLUTELY NO WARRANTY</t>
@@ -45437,6 +45437,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>693</v>
       </c>
